--- a/previews/PR27/examples/results/output_file_CO.xlsx
+++ b/previews/PR27/examples/results/output_file_CO.xlsx
@@ -556,7 +556,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3.6450653076171875</v>
+        <v>3.9038524627685547</v>
       </c>
       <c r="B2">
         <v>1</v>
